--- a/src/test/resources/org/nexial/core/excel/MacroLibrary.xlsx
+++ b/src/test/resources/org/nexial/core/excel/MacroLibrary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FFF70C-18EF-CE4F-8FCA-D3084EC44199}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{59FFF70C-18EF-CE4F-8FCA-D3084EC44199}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="10280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="10280" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macros" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macros" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -35,14 +35,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="427">
   <si>
     <t>description</t>
   </si>
@@ -1299,13 +1300,53 @@
   </si>
   <si>
     <t>search for office location</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1359,8 +1400,84 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1373,8 +1490,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1397,83 +1633,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="31">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1503,10 +1969,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1541,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1576,7 +2042,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1670,21 +2136,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1701,7 +2167,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1753,24 +2219,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1817,28 +2283,31 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q1" t="s">
         <v>264</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>402</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -1876,7 +2345,7 @@
         <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="N2" t="s">
         <v>251</v>
@@ -1885,28 +2354,31 @@
         <v>216</v>
       </c>
       <c r="P2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q2" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>403</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>91</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>166</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>171</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>178</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1950,28 +2422,31 @@
         <v>217</v>
       </c>
       <c r="P3" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q3" t="s">
         <v>382</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>404</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>172</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>400</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2012,28 +2487,31 @@
         <v>218</v>
       </c>
       <c r="P4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" t="s">
         <v>383</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>405</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>389</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>168</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>173</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>179</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2068,25 +2546,28 @@
         <v>219</v>
       </c>
       <c r="P5" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q5" t="s">
         <v>384</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>390</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>169</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>174</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>180</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2118,25 +2599,28 @@
         <v>380</v>
       </c>
       <c r="P6" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q6" t="s">
         <v>385</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>93</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>170</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>175</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>181</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2165,22 +2649,25 @@
         <v>242</v>
       </c>
       <c r="P7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q7" t="s">
         <v>386</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>94</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>176</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>182</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -2209,22 +2696,25 @@
         <v>243</v>
       </c>
       <c r="P8" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" t="s">
         <v>387</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>95</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>177</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>183</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2250,19 +2740,22 @@
         <v>244</v>
       </c>
       <c r="P9" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q9" t="s">
         <v>388</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>205</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>184</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -2284,17 +2777,20 @@
       <c r="N10" t="s">
         <v>245</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>426</v>
+      </c>
+      <c r="S10" t="s">
         <v>391</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>185</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2316,17 +2812,17 @@
       <c r="N11" t="s">
         <v>246</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>392</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>401</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -2345,14 +2841,14 @@
       <c r="N12" t="s">
         <v>247</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>96</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2371,14 +2867,14 @@
       <c r="N13" t="s">
         <v>252</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>393</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>237</v>
       </c>
@@ -2397,14 +2893,14 @@
       <c r="N14" t="s">
         <v>248</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>97</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2420,16 +2916,16 @@
       <c r="N15" t="s">
         <v>249</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>98</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -2443,16 +2939,16 @@
       <c r="N16" t="s">
         <v>250</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>67</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -2463,13 +2959,13 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -2480,13 +2976,13 @@
       <c r="I18" t="s">
         <v>375</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>280</v>
@@ -2497,13 +2993,13 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -2514,13 +3010,13 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>223</v>
@@ -2531,13 +3027,13 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>224</v>
@@ -2545,701 +3041,704 @@
       <c r="E22" t="s">
         <v>298</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="E23" t="s">
         <v>299</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>300</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>59</v>
       </c>
       <c r="E26" t="s">
         <v>301</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>302</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>303</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="E29" t="s">
         <v>304</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>305</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>306</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>307</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>308</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>309</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>310</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>312</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>211</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>313</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>314</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>315</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>316</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>317</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>318</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>319</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>320</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>321</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>322</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>323</v>
-      </c>
-      <c r="R52" t="s">
+        <v>325</v>
+      </c>
+      <c r="S52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>324</v>
-      </c>
-      <c r="R53" t="s">
+        <v>326</v>
+      </c>
+      <c r="S53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>325</v>
-      </c>
-      <c r="R54" t="s">
+        <v>327</v>
+      </c>
+      <c r="S54" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>326</v>
-      </c>
-      <c r="R55" t="s">
+        <v>328</v>
+      </c>
+      <c r="S55" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>327</v>
-      </c>
-      <c r="R56" t="s">
+        <v>329</v>
+      </c>
+      <c r="S56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>328</v>
-      </c>
-      <c r="R57" t="s">
+        <v>330</v>
+      </c>
+      <c r="S57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>329</v>
-      </c>
-      <c r="R58" t="s">
+        <v>331</v>
+      </c>
+      <c r="S58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>330</v>
-      </c>
-      <c r="R59" t="s">
+        <v>332</v>
+      </c>
+      <c r="S59" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>331</v>
-      </c>
-      <c r="R60" t="s">
+        <v>333</v>
+      </c>
+      <c r="S60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>332</v>
-      </c>
-      <c r="R61" t="s">
+        <v>334</v>
+      </c>
+      <c r="S61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>333</v>
-      </c>
-      <c r="R62" t="s">
+        <v>335</v>
+      </c>
+      <c r="S62" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>334</v>
-      </c>
-      <c r="R63" t="s">
+        <v>336</v>
+      </c>
+      <c r="S63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>335</v>
-      </c>
-      <c r="R64" t="s">
+        <v>337</v>
+      </c>
+      <c r="S64" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>336</v>
-      </c>
-      <c r="R65" t="s">
+        <v>338</v>
+      </c>
+      <c r="S65" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>337</v>
-      </c>
-      <c r="R66" t="s">
+        <v>339</v>
+      </c>
+      <c r="S66" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>338</v>
-      </c>
-      <c r="R67" t="s">
+        <v>340</v>
+      </c>
+      <c r="S67" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>339</v>
-      </c>
-      <c r="R68" t="s">
+        <v>341</v>
+      </c>
+      <c r="S68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>340</v>
-      </c>
-      <c r="R69" t="s">
+        <v>415</v>
+      </c>
+      <c r="S69" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>341</v>
-      </c>
-      <c r="R70" t="s">
+        <v>342</v>
+      </c>
+      <c r="S70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>342</v>
-      </c>
-      <c r="R71" t="s">
+        <v>416</v>
+      </c>
+      <c r="S71" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>343</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>344</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>345</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>346</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>347</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>348</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>349</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>350</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>351</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>352</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>353</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>354</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>355</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>356</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>357</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="87" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>358</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>359</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>360</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>361</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>362</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R92" t="s">
+    <row r="92">
+      <c r="S92" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R93" t="s">
+    <row r="93">
+      <c r="S93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R94" t="s">
+    <row r="94">
+      <c r="S94" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R95" t="s">
+    <row r="95">
+      <c r="S95" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R96" t="s">
+    <row r="96">
+      <c r="S96" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R97" t="s">
+    <row r="97">
+      <c r="S97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R98" t="s">
+    <row r="98">
+      <c r="S98" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R99" t="s">
+    <row r="99">
+      <c r="S99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R100" t="s">
+    <row r="100">
+      <c r="S100" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R101" t="s">
+    <row r="101">
+      <c r="S101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R102" t="s">
+    <row r="102">
+      <c r="S102" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R103" t="s">
+    <row r="103">
+      <c r="S103" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R104" t="s">
+    <row r="104">
+      <c r="S104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R105" t="s">
+    <row r="105">
+      <c r="S105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R106" t="s">
+    <row r="106">
+      <c r="S106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R107" t="s">
+    <row r="107">
+      <c r="S107" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R108" t="s">
+    <row r="108">
+      <c r="S108" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="43.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="19.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="31.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>259</v>
       </c>
@@ -3275,7 +3774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>406</v>
       </c>
@@ -3303,7 +3802,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>407</v>
       </c>
@@ -3329,7 +3828,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="11" t="s">
@@ -3354,7 +3853,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11" t="s">
@@ -3376,7 +3875,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11" t="s">
@@ -3398,7 +3897,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11"/>
@@ -3412,7 +3911,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
@@ -3426,7 +3925,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
@@ -3440,7 +3939,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -3454,7 +3953,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -3468,7 +3967,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -3482,7 +3981,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -3496,7 +3995,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -3510,7 +4009,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -3524,7 +4023,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -3538,7 +4037,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -3552,7 +4051,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -3566,7 +4065,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -3580,7 +4079,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -3594,7 +4093,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -3608,7 +4107,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -3622,7 +4121,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -3636,7 +4135,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
@@ -3650,7 +4149,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -3664,7 +4163,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -3678,7 +4177,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -3692,7 +4191,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -3706,7 +4205,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -3720,7 +4219,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -3734,7 +4233,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -3748,7 +4247,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -3762,7 +4261,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -3776,7 +4275,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -3790,7 +4289,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -3804,7 +4303,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -3818,7 +4317,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -3832,7 +4331,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -3846,7 +4345,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -3860,7 +4359,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -3874,7 +4373,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -3888,7 +4387,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -3902,7 +4401,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -3916,7 +4415,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -3930,7 +4429,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -3944,7 +4443,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -3958,7 +4457,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -3972,7 +4471,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -3986,7 +4485,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4000,7 +4499,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4014,7 +4513,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4028,7 +4527,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4042,7 +4541,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4056,7 +4555,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4070,7 +4569,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4084,7 +4583,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4098,7 +4597,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4112,7 +4611,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4126,7 +4625,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4140,7 +4639,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4154,7 +4653,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4168,7 +4667,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4182,7 +4681,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4196,7 +4695,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4210,7 +4709,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4224,7 +4723,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4238,7 +4737,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4252,7 +4751,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4266,7 +4765,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4280,7 +4779,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4294,7 +4793,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4308,7 +4807,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4322,7 +4821,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4336,7 +4835,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4350,7 +4849,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -4364,7 +4863,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -4378,7 +4877,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -4392,7 +4891,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -4406,7 +4905,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -4420,7 +4919,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -4434,7 +4933,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -4448,7 +4947,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -4462,7 +4961,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -4476,7 +4975,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -4490,7 +4989,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -4504,7 +5003,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -4518,7 +5017,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -4532,7 +5031,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -4546,7 +5045,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -4560,7 +5059,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -4574,7 +5073,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -4588,7 +5087,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -4602,7 +5101,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -4616,7 +5115,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -4630,7 +5129,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -4644,7 +5143,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -4658,7 +5157,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -4672,7 +5171,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -4686,7 +5185,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -4700,7 +5199,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -4714,7 +5213,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -4728,7 +5227,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -4742,7 +5241,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -4756,7 +5255,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -4770,7 +5269,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -4784,7 +5283,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -4798,7 +5297,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -4812,7 +5311,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -4826,7 +5325,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -4840,7 +5339,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -4854,7 +5353,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -4868,7 +5367,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -4882,7 +5381,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -4896,7 +5395,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -4910,7 +5409,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -4924,7 +5423,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -4938,7 +5437,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -4952,7 +5451,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -4966,7 +5465,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -4980,7 +5479,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -4994,7 +5493,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5008,7 +5507,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5022,7 +5521,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5036,7 +5535,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5050,7 +5549,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5064,7 +5563,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5078,7 +5577,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5092,7 +5591,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5106,7 +5605,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5120,7 +5619,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5134,7 +5633,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5148,7 +5647,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5162,7 +5661,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5176,7 +5675,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5190,7 +5689,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5204,7 +5703,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5218,7 +5717,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5232,7 +5731,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5246,7 +5745,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5260,7 +5759,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5274,7 +5773,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5288,7 +5787,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5302,7 +5801,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5316,7 +5815,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5330,7 +5829,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5344,7 +5843,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -5358,7 +5857,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -5372,7 +5871,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -5386,7 +5885,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -5400,7 +5899,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -5414,7 +5913,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -5428,7 +5927,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -5442,7 +5941,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -5456,7 +5955,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -5470,7 +5969,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -5484,7 +5983,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -5498,7 +5997,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -5512,7 +6011,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -5526,7 +6025,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -5540,7 +6039,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -5554,7 +6053,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -5568,7 +6067,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -5582,7 +6081,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -5596,7 +6095,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -5610,7 +6109,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -5624,7 +6123,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -5638,7 +6137,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -5652,7 +6151,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -5666,7 +6165,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -5680,7 +6179,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -5694,7 +6193,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -5708,7 +6207,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -5722,7 +6221,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -5736,7 +6235,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -5750,7 +6249,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -5764,7 +6263,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -5778,7 +6277,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -5792,7 +6291,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -5806,7 +6305,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -5820,7 +6319,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -5834,7 +6333,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -5848,7 +6347,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -5862,7 +6361,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -5876,7 +6375,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -5890,7 +6389,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -5904,7 +6403,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -5918,7 +6417,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -5932,7 +6431,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -5946,7 +6445,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -5960,7 +6459,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -5974,7 +6473,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -5988,7 +6487,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6002,7 +6501,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6016,7 +6515,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6030,7 +6529,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6044,7 +6543,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6058,7 +6557,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6072,7 +6571,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6086,7 +6585,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6100,7 +6599,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6114,7 +6613,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6128,7 +6627,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6142,7 +6641,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6156,7 +6655,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6170,7 +6669,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6184,7 +6683,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6198,7 +6697,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6212,7 +6711,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6226,7 +6725,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6240,7 +6739,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6254,7 +6753,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6268,7 +6767,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6282,7 +6781,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6296,7 +6795,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6310,7 +6809,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6324,7 +6823,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6338,7 +6837,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6352,7 +6851,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -6366,7 +6865,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -6380,7 +6879,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -6394,7 +6893,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -6408,7 +6907,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -6422,7 +6921,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -6436,7 +6935,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -6450,7 +6949,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -6464,7 +6963,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -6478,7 +6977,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -6492,7 +6991,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -6506,7 +7005,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -6520,7 +7019,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -6534,7 +7033,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -6548,7 +7047,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -6562,7 +7061,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -6576,7 +7075,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -6590,7 +7089,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -6604,7 +7103,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -6618,7 +7117,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -6632,7 +7131,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -6646,7 +7145,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -6660,7 +7159,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -6674,7 +7173,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -6688,7 +7187,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -6702,7 +7201,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -6716,7 +7215,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -6730,7 +7229,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -6744,7 +7243,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -6758,7 +7257,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -6772,7 +7271,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -6786,7 +7285,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -6800,7 +7299,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -6814,7 +7313,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -6828,7 +7327,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -6842,7 +7341,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -6856,7 +7355,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -6870,7 +7369,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -6884,7 +7383,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -6898,7 +7397,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -6912,7 +7411,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -6926,7 +7425,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -6940,7 +7439,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -6954,7 +7453,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -6968,7 +7467,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -6982,7 +7481,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -6996,7 +7495,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7010,7 +7509,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7024,7 +7523,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7038,7 +7537,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7052,7 +7551,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7066,7 +7565,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7080,7 +7579,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7094,7 +7593,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7108,7 +7607,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7122,7 +7621,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7136,7 +7635,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7150,7 +7649,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7164,7 +7663,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7178,7 +7677,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7192,7 +7691,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7206,7 +7705,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7220,7 +7719,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7234,7 +7733,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7248,7 +7747,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7262,7 +7761,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7276,7 +7775,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7290,7 +7789,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7304,7 +7803,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7318,7 +7817,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7332,7 +7831,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7346,7 +7845,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -7360,7 +7859,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -7374,7 +7873,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -7388,7 +7887,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -7402,7 +7901,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -7416,7 +7915,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -7430,7 +7929,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -7444,7 +7943,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -7458,7 +7957,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -7472,7 +7971,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -7486,7 +7985,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -7500,7 +7999,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -7514,7 +8013,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -7528,7 +8027,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -7542,7 +8041,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -7556,7 +8055,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -7570,7 +8069,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -7584,7 +8083,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -7598,7 +8097,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -7612,7 +8111,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -7626,7 +8125,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -7640,7 +8139,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -7654,7 +8153,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -7668,7 +8167,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -7682,7 +8181,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -7696,7 +8195,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -7710,7 +8209,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -7724,7 +8223,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -7738,7 +8237,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -7752,7 +8251,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -7766,7 +8265,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -7780,7 +8279,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -7794,7 +8293,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -7808,7 +8307,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -7822,7 +8321,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -7836,7 +8335,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -7850,7 +8349,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -7864,7 +8363,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -7878,7 +8377,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -7892,7 +8391,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -7906,7 +8405,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -7920,7 +8419,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -7934,7 +8433,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -7948,7 +8447,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -7962,7 +8461,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -7976,7 +8475,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -7990,7 +8489,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8004,7 +8503,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8018,7 +8517,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8032,7 +8531,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8046,7 +8545,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8060,7 +8559,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8074,7 +8573,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8088,7 +8587,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8102,7 +8601,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8116,7 +8615,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8130,7 +8629,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8144,7 +8643,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8158,7 +8657,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8172,7 +8671,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8186,7 +8685,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8200,7 +8699,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8214,7 +8713,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8228,7 +8727,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8242,7 +8741,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8256,7 +8755,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8270,7 +8769,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8284,7 +8783,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8298,7 +8797,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8312,7 +8811,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8326,7 +8825,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8340,7 +8839,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8354,7 +8853,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -8368,7 +8867,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -8382,7 +8881,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -8396,7 +8895,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -8410,7 +8909,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -8424,7 +8923,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -8438,7 +8937,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -8452,7 +8951,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -8466,7 +8965,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -8480,7 +8979,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -8494,7 +8993,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -8508,7 +9007,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -8522,7 +9021,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -8536,7 +9035,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -8550,7 +9049,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -8564,7 +9063,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -8578,7 +9077,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -8592,7 +9091,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -8606,7 +9105,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -8620,7 +9119,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -8634,7 +9133,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -8648,7 +9147,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -8662,7 +9161,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -8676,7 +9175,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -8690,7 +9189,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -8704,7 +9203,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -8718,7 +9217,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -8732,7 +9231,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -8746,7 +9245,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -8760,7 +9259,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -8774,7 +9273,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -8788,7 +9287,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -8802,7 +9301,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -8816,7 +9315,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -8830,7 +9329,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -8844,7 +9343,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -8858,7 +9357,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -8872,7 +9371,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -8886,7 +9385,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -8900,7 +9399,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -8914,7 +9413,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -8928,7 +9427,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -8942,7 +9441,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -8956,7 +9455,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -8970,7 +9469,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -8984,7 +9483,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -8998,7 +9497,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9012,7 +9511,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9026,7 +9525,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9040,7 +9539,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9054,7 +9553,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9068,7 +9567,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9082,7 +9581,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9096,7 +9595,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9110,7 +9609,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9124,7 +9623,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9138,7 +9637,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9152,7 +9651,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9166,7 +9665,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9180,7 +9679,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9194,7 +9693,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9208,7 +9707,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9222,7 +9721,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9236,7 +9735,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9250,7 +9749,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9264,7 +9763,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9278,7 +9777,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9292,7 +9791,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9306,7 +9805,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9320,7 +9819,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9334,7 +9833,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9348,7 +9847,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -9362,7 +9861,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -9376,7 +9875,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -9390,7 +9889,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -9404,7 +9903,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -9418,7 +9917,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -9432,7 +9931,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -9446,7 +9945,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -9460,7 +9959,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -9474,7 +9973,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -9488,7 +9987,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -9502,7 +10001,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -9516,7 +10015,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -9530,7 +10029,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -9544,7 +10043,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -9558,7 +10057,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -9572,7 +10071,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -9586,7 +10085,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -9600,7 +10099,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -9614,7 +10113,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -9628,7 +10127,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -9642,7 +10141,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -9656,7 +10155,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -9670,7 +10169,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -9684,7 +10183,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -9698,7 +10197,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -9712,7 +10211,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -9726,7 +10225,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -9740,7 +10239,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -9754,7 +10253,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -9768,7 +10267,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -9782,7 +10281,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -9796,7 +10295,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -9810,7 +10309,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -9824,7 +10323,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -9838,7 +10337,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -9852,7 +10351,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -9866,7 +10365,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -9880,7 +10379,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -9894,7 +10393,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -9908,7 +10407,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -9922,7 +10421,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -9936,7 +10435,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -9950,7 +10449,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -9964,7 +10463,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -9978,7 +10477,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -9992,7 +10491,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10006,7 +10505,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10020,7 +10519,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10034,7 +10533,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10048,7 +10547,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10062,7 +10561,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10076,7 +10575,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10090,7 +10589,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10104,7 +10603,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10118,7 +10617,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10132,7 +10631,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10146,7 +10645,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10160,7 +10659,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10174,7 +10673,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10188,7 +10687,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10202,7 +10701,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10216,7 +10715,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10230,7 +10729,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10244,7 +10743,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10258,7 +10757,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10272,7 +10771,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10286,7 +10785,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10300,7 +10799,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10314,7 +10813,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10328,7 +10827,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10342,7 +10841,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -10356,7 +10855,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -10370,7 +10869,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -10384,7 +10883,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -10398,7 +10897,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -10412,7 +10911,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -10426,7 +10925,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -10440,7 +10939,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -10454,7 +10953,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -10468,7 +10967,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -10482,7 +10981,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -10496,7 +10995,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -10510,7 +11009,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -10524,7 +11023,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -10538,7 +11037,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -10552,7 +11051,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -10566,7 +11065,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -10580,7 +11079,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -10594,7 +11093,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -10608,7 +11107,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -10622,7 +11121,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -10636,7 +11135,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -10650,7 +11149,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -10664,7 +11163,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -10678,7 +11177,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -10692,7 +11191,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -10706,7 +11205,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -10720,7 +11219,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -10734,7 +11233,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -10748,7 +11247,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -10762,7 +11261,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -10776,7 +11275,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -10790,7 +11289,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -10804,7 +11303,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -10818,7 +11317,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -10832,7 +11331,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -10846,7 +11345,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -10860,7 +11359,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -10874,7 +11373,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -10888,7 +11387,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -10902,7 +11401,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -10916,7 +11415,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -10930,7 +11429,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -10944,7 +11443,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -10958,7 +11457,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -10972,7 +11471,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -10986,7 +11485,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11000,7 +11499,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11014,7 +11513,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11028,7 +11527,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11042,7 +11541,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11056,7 +11555,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11070,7 +11569,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11084,7 +11583,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11098,7 +11597,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11112,7 +11611,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11126,7 +11625,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11140,7 +11639,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11154,7 +11653,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11168,7 +11667,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11182,7 +11681,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11196,7 +11695,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11210,7 +11709,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11224,7 +11723,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11238,7 +11737,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11252,7 +11751,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11266,7 +11765,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11280,7 +11779,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11294,7 +11793,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11308,7 +11807,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11322,7 +11821,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11336,7 +11835,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11350,7 +11849,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -11364,7 +11863,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -11378,7 +11877,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -11392,7 +11891,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -11406,7 +11905,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -11420,7 +11919,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -11434,7 +11933,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -11448,7 +11947,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -11462,7 +11961,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -11476,7 +11975,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -11490,7 +11989,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -11504,7 +12003,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -11518,7 +12017,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -11532,7 +12031,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -11546,7 +12045,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -11560,7 +12059,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -11574,7 +12073,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -11588,7 +12087,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -11602,7 +12101,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -11616,7 +12115,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -11630,7 +12129,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -11644,7 +12143,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -11658,7 +12157,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -11672,7 +12171,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -11686,7 +12185,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -11700,7 +12199,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -11714,7 +12213,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -11728,7 +12227,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -11742,7 +12241,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -11756,7 +12255,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -11770,7 +12269,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -11784,7 +12283,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -11798,7 +12297,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -11812,7 +12311,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -11826,7 +12325,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -11840,7 +12339,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -11854,7 +12353,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -11868,7 +12367,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -11882,7 +12381,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -11896,7 +12395,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -11910,7 +12409,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -11924,7 +12423,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -11938,7 +12437,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -11952,7 +12451,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -11966,7 +12465,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -11980,7 +12479,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -11994,7 +12493,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12008,7 +12507,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12022,7 +12521,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12036,7 +12535,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12050,7 +12549,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12064,7 +12563,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12078,7 +12577,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12092,7 +12591,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12106,7 +12605,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12120,7 +12619,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12134,7 +12633,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12148,7 +12647,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12162,7 +12661,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12176,7 +12675,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12190,7 +12689,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12204,7 +12703,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12218,7 +12717,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12232,7 +12731,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12246,7 +12745,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12260,7 +12759,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12274,7 +12773,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12288,7 +12787,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12302,7 +12801,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12316,7 +12815,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12330,368 +12829,368 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D694" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D694" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C696" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C696" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>